--- a/docs/project_management/Risikoliste.xlsx
+++ b/docs/project_management/Risikoliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaziesche/Desktop/SE-RE-I4/docs/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59152AEE-18C3-2047-8324-F1A298513942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CC76D-890E-804C-AC4D-2B3A1D499C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35200" yWindow="-11880" windowWidth="28800" windowHeight="19180" xr2:uid="{3854DE77-F751-BA44-B68C-024BD45DA847}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3854DE77-F751-BA44-B68C-024BD45DA847}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Nummer</t>
   </si>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,13 +219,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -426,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -540,19 +533,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -726,12 +706,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,12 +885,6 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,15 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,13 +978,13 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,18 +999,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -928,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,110 +1032,87 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="24" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="24" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="28" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="29" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="28" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="29" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="25" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="25" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="25" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="25" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="25" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1059,35 +1122,122 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="32" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1418,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415E6747-765F-394D-8EBA-0E2854FA1744}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1594,7 @@
     <col min="17" max="17" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1454,32 +1604,40 @@
       <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="119">
+      <c r="H1" s="102">
         <v>1</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="115">
+      <c r="I1" s="99"/>
+      <c r="J1" s="98">
         <v>2</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="115">
+      <c r="K1" s="99"/>
+      <c r="L1" s="98">
         <v>3</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="115">
+      <c r="M1" s="99"/>
+      <c r="N1" s="98">
         <v>4</v>
       </c>
-      <c r="O1" s="116"/>
-      <c r="P1" s="117">
+      <c r="O1" s="99"/>
+      <c r="P1" s="100">
         <v>5</v>
       </c>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="117">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="100">
         <v>6</v>
       </c>
-      <c r="S1" s="118"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="98">
+        <v>7</v>
+      </c>
+      <c r="U1" s="99"/>
+      <c r="V1" s="98">
+        <v>8</v>
+      </c>
+      <c r="W1" s="99"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1647,7 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="61" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1504,41 +1662,53 @@
       <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="74" t="s">
+      <c r="S2" s="103" t="s">
         <v>5</v>
       </c>
+      <c r="T2" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1548,10 +1718,10 @@
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>44172</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1560,50 +1730,64 @@
       <c r="G3" s="11">
         <v>4</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="43">
         <v>0.8</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="23">
         <f>G3*H3</f>
         <v>3.2</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="42">
         <v>0.7</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="28">
         <f>G3*J3</f>
         <v>2.8</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="31">
         <v>0.6</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="28">
         <f>G3*L3</f>
         <v>2.4</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="49">
         <v>0.1</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="25">
         <f>G3*N3</f>
         <v>0.4</v>
       </c>
-      <c r="P3" s="89">
+      <c r="P3" s="79">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="81">
+      <c r="Q3" s="72">
         <f>G3*P3</f>
         <v>0.4</v>
       </c>
-      <c r="R3" s="89">
+      <c r="R3" s="79">
         <v>0.1</v>
       </c>
-      <c r="S3" s="81">
+      <c r="S3" s="72">
         <f>G3*R3</f>
         <v>0.4</v>
       </c>
+      <c r="T3" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="U3" s="72">
+        <f>I3*T3</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="V3" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="72">
+        <f>K3*V3</f>
+        <v>0.27999999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1613,8 +1797,8 @@
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="20">
+      <c r="D4" s="97"/>
+      <c r="E4" s="18">
         <v>44172</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1626,47 +1810,61 @@
       <c r="H4" s="14">
         <v>0.3</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <f>G4*H4</f>
         <v>1.5</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="32">
         <v>0.2</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="26">
         <f>G4*J4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="50">
         <v>0.15</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="26">
         <f t="shared" ref="M4:M7" si="0">G4*L4</f>
         <v>0.75</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="49">
         <v>0.1</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="25">
         <f t="shared" ref="O4:O15" si="1">G4*N4</f>
         <v>0.5</v>
       </c>
-      <c r="P4" s="89">
+      <c r="P4" s="79">
         <v>0.1</v>
       </c>
-      <c r="Q4" s="81">
+      <c r="Q4" s="72">
         <f t="shared" ref="Q4:Q14" si="2">G4*P4</f>
         <v>0.5</v>
       </c>
-      <c r="R4" s="89">
+      <c r="R4" s="79">
         <v>0.1</v>
       </c>
-      <c r="S4" s="81">
+      <c r="S4" s="72">
         <f>G4*R4</f>
         <v>0.5</v>
       </c>
+      <c r="T4" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="72">
+        <f>I4*T4</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="V4" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="72">
+        <f>K4*V4</f>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1679,59 +1877,73 @@
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>44172</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="37">
         <v>3</v>
       </c>
       <c r="H5" s="13">
         <v>0.6</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <f t="shared" ref="I5:I11" si="3">G5*H5</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="31">
         <v>0.5</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="24">
         <f>G5*J5</f>
         <v>1.5</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <v>0.3</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="N5" s="97">
+      <c r="N5" s="85">
         <v>0</v>
       </c>
-      <c r="O5" s="79">
+      <c r="O5" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="80">
         <v>0</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="90">
+      <c r="R5" s="80">
         <v>0</v>
       </c>
-      <c r="S5" s="80">
+      <c r="S5" s="71">
         <f t="shared" ref="S5" si="4">I5*R5</f>
         <v>0</v>
       </c>
+      <c r="T5" s="80">
+        <v>0</v>
+      </c>
+      <c r="U5" s="71">
+        <f t="shared" ref="U5" si="5">K5*T5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="80">
+        <v>0</v>
+      </c>
+      <c r="W5" s="71">
+        <f t="shared" ref="W5" si="6">M5*V5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1744,54 +1956,68 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>44172</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="37">
         <v>3</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="36">
+      <c r="H6" s="60"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="32">
         <v>0.25</v>
       </c>
-      <c r="K6" s="28">
-        <f t="shared" ref="K6:K11" si="5">G6*J6</f>
+      <c r="K6" s="26">
+        <f t="shared" ref="K6:K11" si="7">G6*J6</f>
         <v>0.75</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="49">
         <v>0.05</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="25">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="49">
         <v>0.1</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="25">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P6" s="89">
+      <c r="P6" s="79">
         <v>0.05</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="72">
         <f t="shared" si="2"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="R6" s="89">
+      <c r="R6" s="79">
         <v>0.05</v>
       </c>
-      <c r="S6" s="81">
+      <c r="S6" s="72">
         <f>G6*R6</f>
         <v>0.15000000000000002</v>
       </c>
+      <c r="T6" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="U6" s="72">
+        <f>I6*T6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="72">
+        <f>K6*V6</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1804,7 +2030,7 @@
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>44172</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1813,50 +2039,64 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="41">
         <v>0.8</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="31">
         <v>0.6</v>
       </c>
-      <c r="K7" s="28">
-        <f t="shared" si="5"/>
+      <c r="K7" s="26">
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="21">
         <v>0.4</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="25">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="21">
         <v>0.4</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="25">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="P7" s="75">
+      <c r="P7" s="66">
         <v>0.4</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7" s="72">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="R7" s="90">
+      <c r="R7" s="80">
         <v>0.4</v>
       </c>
-      <c r="S7" s="81">
+      <c r="S7" s="72">
         <f>G7*R7</f>
         <v>0.4</v>
       </c>
+      <c r="T7" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="U7" s="72">
+        <f>I7*T7</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="V7" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="W7" s="72">
+        <f>K7*V7</f>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1869,59 +2109,73 @@
       <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>44172</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="37">
         <v>3</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <v>0.7</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="28">
         <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="31">
         <v>0.5</v>
       </c>
-      <c r="K8" s="26">
-        <f t="shared" si="5"/>
+      <c r="K8" s="24">
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <v>0.3</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="26">
         <f>G8*L8</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="21">
         <v>0.3</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="26">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="81">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="81">
+      <c r="Q8" s="72">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R8" s="90">
+      <c r="R8" s="80">
         <v>0.2</v>
       </c>
-      <c r="S8" s="81">
+      <c r="S8" s="72">
         <f>G8*R8</f>
         <v>0.60000000000000009</v>
       </c>
+      <c r="T8" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="U8" s="72">
+        <f>I8*T8</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="V8" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="W8" s="72">
+        <f>K8*V8</f>
+        <v>0.30000000000000004</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1934,7 +2188,7 @@
       <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>44172</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1946,47 +2200,61 @@
       <c r="H9" s="13">
         <v>0.5</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="28">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="21">
         <v>0.25</v>
       </c>
-      <c r="K9" s="26">
-        <f t="shared" si="5"/>
+      <c r="K9" s="24">
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="32">
         <v>0.2</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="26">
         <f>G9*L9</f>
         <v>1</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="32">
         <v>0.2</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P9" s="77">
+      <c r="P9" s="68">
         <v>0.2</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="73">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="90">
+      <c r="R9" s="80">
         <v>0.2</v>
       </c>
-      <c r="S9" s="80">
+      <c r="S9" s="71">
         <f>G9*R9</f>
         <v>1</v>
       </c>
+      <c r="T9" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="U9" s="71">
+        <f>I9*T9</f>
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="W9" s="71">
+        <f>K9*V9</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1999,7 +2267,7 @@
       <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>44172</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -2008,116 +2276,143 @@
       <c r="G10" s="12">
         <v>2</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>0.7</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="32">
         <v>0.3</v>
       </c>
-      <c r="K10" s="28">
-        <f t="shared" si="5"/>
+      <c r="K10" s="26">
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="49">
         <v>0.1</v>
       </c>
-      <c r="M10" s="27">
-        <f t="shared" ref="M10:M15" si="6">G10*L10</f>
+      <c r="M10" s="25">
+        <f t="shared" ref="M10:M15" si="8">G10*L10</f>
         <v>0.2</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="49">
         <v>0.1</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="25">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="67">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="81">
+      <c r="Q10" s="72">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="R10" s="90">
+      <c r="R10" s="80">
         <v>0.1</v>
       </c>
-      <c r="S10" s="80">
+      <c r="S10" s="71">
         <f>G10*R10</f>
         <v>0.2</v>
       </c>
-      <c r="V10" s="72"/>
+      <c r="T10" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="U10" s="71">
+        <f>I10*T10</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="V10" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="W10" s="71">
+        <f>K10*V10</f>
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>44172</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="36">
         <v>3</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>0.5</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="29">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="33">
         <v>0.4</v>
       </c>
-      <c r="K11" s="31">
-        <f t="shared" si="5"/>
+      <c r="K11" s="29">
+        <f t="shared" si="7"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="33">
         <v>0.3</v>
       </c>
-      <c r="M11" s="67">
-        <f t="shared" si="6"/>
+      <c r="M11" s="59">
+        <f t="shared" si="8"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="33">
         <v>0.3</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="59">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P11" s="96">
+      <c r="P11" s="84">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="87">
+      <c r="Q11" s="77">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R11" s="98">
+      <c r="R11" s="86">
         <v>0.2</v>
       </c>
-      <c r="S11" s="80">
-        <f t="shared" ref="S11:S16" si="7">G11*R11</f>
+      <c r="S11" s="106">
+        <f t="shared" ref="S11:S16" si="9">G11*R11</f>
         <v>0.60000000000000009</v>
       </c>
+      <c r="T11" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="U11" s="106">
+        <f t="shared" ref="U11:U16" si="10">I11*T11</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V11" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="W11" s="106">
+        <f t="shared" ref="W11:W16" si="11">K11*V11</f>
+        <v>0.24000000000000005</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2130,54 +2425,68 @@
       <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="30">
         <v>44186</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="35">
         <v>3</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="29">
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="27">
         <v>0.7</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="39">
         <f>G12*J12</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="47">
         <v>0.5</v>
       </c>
-      <c r="M12" s="28">
-        <f t="shared" si="6"/>
+      <c r="M12" s="26">
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="47">
         <v>0.5</v>
       </c>
-      <c r="O12" s="83">
+      <c r="O12" s="74">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="P12" s="88">
+      <c r="P12" s="78">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="82">
+      <c r="Q12" s="73">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="R12" s="99">
+      <c r="R12" s="87">
         <v>0.5</v>
       </c>
-      <c r="S12" s="80">
-        <f t="shared" si="7"/>
+      <c r="S12" s="107">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
+      <c r="T12" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="U12" s="107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="107">
+        <f t="shared" si="11"/>
+        <v>1.0499999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2190,238 +2499,291 @@
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="30">
         <v>44186</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="34">
         <v>3</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="49">
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="45">
         <v>0.5</v>
       </c>
-      <c r="K13" s="42">
-        <f t="shared" ref="K13:K15" si="8">G13*J13</f>
+      <c r="K13" s="38">
+        <f t="shared" ref="K13:K15" si="12">G13*J13</f>
         <v>1.5</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="48">
         <v>0.4</v>
       </c>
-      <c r="M13" s="50">
-        <f t="shared" si="6"/>
+      <c r="M13" s="46">
+        <f t="shared" si="8"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="48">
         <v>0.4</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="26">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="69">
         <v>0.4</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="73">
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="R13" s="100">
+      <c r="R13" s="88">
         <v>0.4</v>
       </c>
-      <c r="S13" s="80">
-        <f t="shared" si="7"/>
+      <c r="S13" s="71">
+        <f t="shared" si="9"/>
         <v>1.2000000000000002</v>
       </c>
+      <c r="T13" s="88">
+        <v>0.4</v>
+      </c>
+      <c r="U13" s="71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="88">
+        <v>0.4</v>
+      </c>
+      <c r="W13" s="71">
+        <f t="shared" si="11"/>
+        <v>0.60000000000000009</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+    <row r="14" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="54">
         <v>44186</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="55">
         <v>4</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="64">
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="56">
         <v>0.8</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="57">
+        <f t="shared" si="12"/>
+        <v>3.2</v>
+      </c>
+      <c r="L14" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="59">
         <f t="shared" si="8"/>
-        <v>3.2</v>
-      </c>
-      <c r="L14" s="66">
-        <v>0.3</v>
-      </c>
-      <c r="M14" s="67">
-        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="N14" s="94">
+      <c r="N14" s="82">
         <v>0.1</v>
       </c>
-      <c r="O14" s="86">
+      <c r="O14" s="76">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P14" s="83">
         <v>0.1</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="75">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="R14" s="101">
+      <c r="R14" s="89">
         <v>0.1</v>
       </c>
-      <c r="S14" s="80">
-        <f t="shared" si="7"/>
+      <c r="S14" s="104">
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
+      <c r="T14" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="U14" s="104">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="W14" s="104">
+        <f t="shared" si="11"/>
+        <v>0.32000000000000006</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:25" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="119">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="121">
         <v>44200</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="122">
         <v>5</v>
       </c>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="58">
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125">
         <v>0.6</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="126">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="127">
+        <v>0.7</v>
+      </c>
+      <c r="M15" s="128">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="L15" s="59">
-        <v>0.7</v>
-      </c>
-      <c r="M15" s="60">
-        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="N15" s="92">
+      <c r="N15" s="129">
         <v>0.1</v>
       </c>
-      <c r="O15" s="85">
+      <c r="O15" s="130">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="P15" s="93">
+      <c r="P15" s="131">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="81">
+      <c r="Q15" s="132">
         <f>G15*P15</f>
         <v>0.5</v>
       </c>
-      <c r="R15" s="120">
+      <c r="R15" s="133">
         <v>0.1</v>
       </c>
-      <c r="S15" s="80">
-        <f t="shared" si="7"/>
+      <c r="S15" s="134">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
+      <c r="T15" s="133">
+        <v>0.1</v>
+      </c>
+      <c r="U15" s="134">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="133">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="134">
+        <f t="shared" si="11"/>
+        <v>0.30000000000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+    <row r="16" spans="1:25" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="109">
         <v>14</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103">
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111">
         <v>44285</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="112">
         <v>5</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="80">
-        <f t="shared" si="7"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="T16" s="117"/>
+      <c r="U16" s="118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="117"/>
+      <c r="W16" s="118">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="108"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
@@ -2442,7 +2804,9 @@
       <c r="O22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="R1:S1"/>

--- a/docs/project_management/Risikoliste.xlsx
+++ b/docs/project_management/Risikoliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaziesche/Desktop/SE-RE-I4/docs/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CC76D-890E-804C-AC4D-2B3A1D499C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424522E3-CFDA-2A47-9B8E-383A342FDF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3854DE77-F751-BA44-B68C-024BD45DA847}"/>
+    <workbookView xWindow="-32680" yWindow="-9880" windowWidth="28800" windowHeight="15900" xr2:uid="{3854DE77-F751-BA44-B68C-024BD45DA847}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Nummer</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Bestehende Struktur gibt Änderungen nicht her</t>
+  </si>
+  <si>
+    <t>Da wir ein System weiterentwickeln, wäre es möglich, dass die Änderungswünsche der Themensteller nicht in die bestehende Struktur zu implementieren gehen.</t>
+  </si>
+  <si>
+    <t>In den Code reindenken, wenn es nicht anders geht, den alten Code umschreiben</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +421,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70330B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -720,21 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -818,6 +821,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -841,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -858,9 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,30 +881,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,44 +935,20 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1005,9 +974,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,9 +986,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,9 +1025,6 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,9 +1043,6 @@
     <xf numFmtId="9" fontId="2" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="29" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,28 +1054,10 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="25" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="25" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1128,115 +1067,224 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="28" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="32" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="32" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="32" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="18" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="32" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415E6747-765F-394D-8EBA-0E2854FA1744}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1600,116 +1648,116 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="138"/>
+      <c r="G1" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="102">
+      <c r="H1" s="95">
         <v>1</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="98">
+      <c r="I1" s="96"/>
+      <c r="J1" s="95">
         <v>2</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="98">
+      <c r="K1" s="96"/>
+      <c r="L1" s="95">
         <v>3</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="98">
+      <c r="M1" s="96"/>
+      <c r="N1" s="95">
         <v>4</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="100">
+      <c r="O1" s="96"/>
+      <c r="P1" s="99">
         <v>5</v>
       </c>
       <c r="Q1" s="101"/>
-      <c r="R1" s="100">
+      <c r="R1" s="99">
         <v>6</v>
       </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="98">
+      <c r="S1" s="100"/>
+      <c r="T1" s="95">
         <v>7</v>
       </c>
-      <c r="U1" s="99"/>
-      <c r="V1" s="98">
+      <c r="U1" s="96"/>
+      <c r="V1" s="95">
         <v>8</v>
       </c>
-      <c r="W1" s="99"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="103" t="s">
+      <c r="S2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="94" t="s">
+      <c r="T2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="95" t="s">
+      <c r="U2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="94" t="s">
+      <c r="V2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="95" t="s">
+      <c r="W2" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1718,77 +1766,77 @@
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <v>44172</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="128">
         <v>4</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="29">
         <v>0.8</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="16">
         <f>G3*H3</f>
         <v>3.2</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="29">
         <v>0.7</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="21">
         <f>G3*J3</f>
         <v>2.8</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="24">
         <v>0.6</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="21">
         <f>G3*L3</f>
         <v>2.4</v>
       </c>
-      <c r="N3" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="O3" s="25">
+      <c r="N3" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="18">
         <f>G3*N3</f>
         <v>0.4</v>
       </c>
-      <c r="P3" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="Q3" s="72">
+      <c r="P3" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="55">
         <f>G3*P3</f>
         <v>0.4</v>
       </c>
-      <c r="R3" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="S3" s="72">
+      <c r="R3" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="55">
         <f>G3*R3</f>
         <v>0.4</v>
       </c>
-      <c r="T3" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="U3" s="72">
-        <f>I3*T3</f>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="V3" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="W3" s="72">
-        <f>K3*V3</f>
-        <v>0.27999999999999997</v>
+      <c r="T3" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="U3" s="55">
+        <f>G3*T3</f>
+        <v>0.4</v>
+      </c>
+      <c r="V3" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="55">
+        <f>G3*V3</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1797,75 +1845,75 @@
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="18">
+      <c r="D4" s="98"/>
+      <c r="E4" s="11">
         <v>44172</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="129">
         <v>5</v>
       </c>
       <c r="H4" s="14">
         <v>0.3</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="17">
         <f>G4*H4</f>
         <v>1.5</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="25">
         <v>0.2</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="19">
         <f>G4*J4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="35">
         <v>0.15</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="19">
         <f t="shared" ref="M4:M7" si="0">G4*L4</f>
         <v>0.75</v>
       </c>
-      <c r="N4" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="25">
+      <c r="N4" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="18">
         <f t="shared" ref="O4:O15" si="1">G4*N4</f>
         <v>0.5</v>
       </c>
-      <c r="P4" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" s="72">
+      <c r="P4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="55">
         <f t="shared" ref="Q4:Q14" si="2">G4*P4</f>
         <v>0.5</v>
       </c>
-      <c r="R4" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="72">
-        <f>G4*R4</f>
+      <c r="R4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="55">
+        <f t="shared" ref="S4:S16" si="3">G4*R4</f>
         <v>0.5</v>
       </c>
-      <c r="T4" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="U4" s="72">
-        <f>I4*T4</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="V4" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="72">
-        <f>K4*V4</f>
-        <v>0.1</v>
+      <c r="T4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="55">
+        <f t="shared" ref="U4:U16" si="4">G4*T4</f>
+        <v>0.5</v>
+      </c>
+      <c r="V4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="55">
+        <f t="shared" ref="W4:W16" si="5">G4*V4</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1877,74 +1925,74 @@
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>44172</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="130">
         <v>3</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="24">
         <v>0.6</v>
       </c>
-      <c r="I5" s="24">
-        <f t="shared" ref="I5:I11" si="3">G5*H5</f>
+      <c r="I5" s="17">
+        <f t="shared" ref="I5:I11" si="6">G5*H5</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="24">
         <v>0.5</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="17">
         <f>G5*J5</f>
         <v>1.5</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="14">
         <v>0.3</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="19">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="66">
         <v>0</v>
       </c>
-      <c r="O5" s="70">
+      <c r="O5" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="62">
         <v>0</v>
       </c>
-      <c r="Q5" s="71">
+      <c r="Q5" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="80">
+      <c r="R5" s="62">
         <v>0</v>
       </c>
-      <c r="S5" s="71">
-        <f t="shared" ref="S5" si="4">I5*R5</f>
+      <c r="S5" s="54">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T5" s="80">
+      <c r="T5" s="62">
         <v>0</v>
       </c>
-      <c r="U5" s="71">
-        <f t="shared" ref="U5" si="5">K5*T5</f>
+      <c r="U5" s="54">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V5" s="80">
+      <c r="V5" s="62">
         <v>0</v>
       </c>
-      <c r="W5" s="71">
-        <f t="shared" ref="W5" si="6">M5*V5</f>
+      <c r="W5" s="54">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1956,69 +2004,74 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>44172</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="130">
         <v>3</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="32">
+      <c r="H6" s="119">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="17">
+        <f>G6*H6</f>
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="25">
         <v>0.25</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="19">
         <f t="shared" ref="K6:K11" si="7">G6*J6</f>
         <v>0.75</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="34">
         <v>0.05</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="18">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="N6" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="O6" s="25">
+      <c r="N6" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="18">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P6" s="79">
+      <c r="P6" s="61">
         <v>0.05</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="55">
         <f t="shared" si="2"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="R6" s="79">
+      <c r="R6" s="61">
         <v>0.05</v>
       </c>
-      <c r="S6" s="72">
-        <f>G6*R6</f>
+      <c r="S6" s="55">
+        <f t="shared" si="3"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="T6" s="79">
+      <c r="T6" s="61">
         <v>0.05</v>
       </c>
-      <c r="U6" s="72">
-        <f>I6*T6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="79">
+      <c r="U6" s="55">
+        <f t="shared" si="4"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="V6" s="61">
         <v>0.05</v>
       </c>
-      <c r="W6" s="72">
-        <f>K6*V6</f>
-        <v>3.7500000000000006E-2</v>
+      <c r="W6" s="55">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2030,760 +2083,775 @@
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="11">
         <v>44172</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="127">
         <v>1</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="120">
         <v>0.8</v>
       </c>
-      <c r="I7" s="26">
-        <f t="shared" si="3"/>
+      <c r="I7" s="19">
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="24">
         <v>0.6</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="19">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="14">
         <v>0.4</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="18">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="14">
         <v>0.4</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="18">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="P7" s="66">
+      <c r="P7" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="Q7" s="55">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="55">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="U7" s="55">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="V7" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="W7" s="55">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="130">
+        <v>3</v>
+      </c>
+      <c r="H8" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="21">
+        <f>G8*H8</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="17">
+        <f>G8*J8</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="M8" s="19">
+        <f>G8*L8</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="19">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="P8" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="55">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R8" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="S8" s="55">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="T8" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="U8" s="55">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V8" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="55">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="129">
+        <v>5</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="19">
+        <f>G9*L9</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="U9" s="55">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="61">
+        <v>0.05</v>
+      </c>
+      <c r="W9" s="55">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44172</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="131">
+        <v>2</v>
+      </c>
+      <c r="H10" s="121">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="L10" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" ref="M10:M15" si="8">G10*L10</f>
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="55">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="55">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="U10" s="55">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="V10" s="62">
+        <v>0</v>
+      </c>
+      <c r="W10" s="54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12">
+        <v>44172</v>
+      </c>
+      <c r="F11" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="132">
+        <v>3</v>
+      </c>
+      <c r="H11" s="122">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="26">
         <v>0.4</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="K11" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="43">
+        <f t="shared" si="8"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="43">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="P11" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="59">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R11" s="110">
+        <v>0.2</v>
+      </c>
+      <c r="S11" s="113">
+        <f>G11*R11</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="T11" s="110">
+        <v>0.2</v>
+      </c>
+      <c r="U11" s="113">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="V11" s="110">
+        <v>0.2</v>
+      </c>
+      <c r="W11" s="113">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="23">
+        <v>44186</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="133">
+        <v>3</v>
+      </c>
+      <c r="H12" s="123"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="K12" s="28">
+        <f>G12*J12</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="117">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="116">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="R12" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="S12" s="116">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="T12" s="112">
+        <v>0.3</v>
+      </c>
+      <c r="U12" s="56">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="V12" s="111">
+        <v>0.2</v>
+      </c>
+      <c r="W12" s="56">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="23">
+        <v>44186</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="134">
+        <v>3</v>
+      </c>
+      <c r="H13" s="123"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" ref="K13:K15" si="9">G13*J13</f>
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="M13" s="115">
+        <f t="shared" si="8"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="17">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="P13" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="Q13" s="116">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="R13" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="S13" s="56">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="T13" s="107">
+        <v>0.2</v>
+      </c>
+      <c r="U13" s="56">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="V13" s="108">
+        <v>0.1</v>
+      </c>
+      <c r="W13" s="55">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="39">
+        <v>44186</v>
+      </c>
+      <c r="F14" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="135">
+        <v>4</v>
+      </c>
+      <c r="H14" s="124"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="N14" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="58">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="P14" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="57">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="R7" s="80">
+      <c r="R14" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="S14" s="92">
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="S7" s="72">
-        <f>G7*R7</f>
+      <c r="T14" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="U14" s="92">
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="T7" s="80">
+      <c r="V14" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="W14" s="92">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="U7" s="72">
-        <f>I7*T7</f>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="V7" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="W7" s="72">
-        <f>K7*V7</f>
-        <v>0.24</v>
-      </c>
     </row>
-    <row r="8" spans="1:25" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="18">
-        <v>44172</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="37">
+    <row r="15" spans="1:25" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
+        <v>13</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="81">
+        <v>44200</v>
+      </c>
+      <c r="F15" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="136">
+        <v>5</v>
+      </c>
+      <c r="H15" s="125"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="84">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="H8" s="40">
+      <c r="L15" s="85">
         <v>0.7</v>
       </c>
-      <c r="I8" s="28">
+      <c r="M15" s="114">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="N15" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="87">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="91">
+        <f>G15*P15</f>
+        <v>0.5</v>
+      </c>
+      <c r="R15" s="105">
+        <v>0.1</v>
+      </c>
+      <c r="S15" s="94">
         <f t="shared" si="3"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="J8" s="31">
         <v>0.5</v>
       </c>
-      <c r="K8" s="24">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="21">
+      <c r="T15" s="105">
+        <v>0.1</v>
+      </c>
+      <c r="U15" s="93">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="V15" s="105">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="93">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
+        <v>14</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="75">
+        <v>44285</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="137">
+        <v>5</v>
+      </c>
+      <c r="H16" s="126"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="104">
+        <v>0.7</v>
+      </c>
+      <c r="Q16" s="114">
+        <f>G16*P16</f>
+        <v>3.5</v>
+      </c>
+      <c r="R16" s="118">
         <v>0.3</v>
       </c>
-      <c r="M8" s="26">
-        <f>G8*L8</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="26">
-        <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="P8" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="Q8" s="72">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R8" s="80">
-        <v>0.2</v>
-      </c>
-      <c r="S8" s="72">
-        <f>G8*R8</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="T8" s="80">
-        <v>0.2</v>
-      </c>
-      <c r="U8" s="72">
-        <f>I8*T8</f>
-        <v>0.41999999999999993</v>
-      </c>
-      <c r="V8" s="80">
-        <v>0.2</v>
-      </c>
-      <c r="W8" s="72">
-        <f>K8*V8</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="18">
-        <v>44172</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="28">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="L9" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="M9" s="26">
-        <f>G9*L9</f>
-        <v>1</v>
-      </c>
-      <c r="N9" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="O9" s="26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="73">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="80">
-        <v>0.2</v>
-      </c>
-      <c r="S9" s="71">
-        <f>G9*R9</f>
-        <v>1</v>
-      </c>
-      <c r="T9" s="80">
-        <v>0.2</v>
-      </c>
-      <c r="U9" s="71">
-        <f>I9*T9</f>
-        <v>0.5</v>
-      </c>
-      <c r="V9" s="80">
-        <v>0.2</v>
-      </c>
-      <c r="W9" s="71">
-        <f>K9*V9</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="18">
-        <v>44172</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-      <c r="H10" s="40">
-        <v>0.7</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="26">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
-      </c>
-      <c r="L10" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="M10" s="25">
-        <f t="shared" ref="M10:M15" si="8">G10*L10</f>
-        <v>0.2</v>
-      </c>
-      <c r="N10" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="25">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="P10" s="67">
-        <v>0.1</v>
-      </c>
-      <c r="Q10" s="72">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="R10" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="S10" s="71">
-        <f>G10*R10</f>
-        <v>0.2</v>
-      </c>
-      <c r="T10" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="U10" s="71">
-        <f>I10*T10</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="V10" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="W10" s="71">
-        <f>K10*V10</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="19">
-        <v>44172</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="36">
-        <v>3</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="29">
+      <c r="S16" s="144">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="J11" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="29">
-        <f t="shared" si="7"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="L11" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="M11" s="59">
-        <f t="shared" si="8"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N11" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="O11" s="59">
-        <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="P11" s="84">
-        <v>0.2</v>
-      </c>
-      <c r="Q11" s="77">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R11" s="86">
-        <v>0.2</v>
-      </c>
-      <c r="S11" s="106">
-        <f t="shared" ref="S11:S16" si="9">G11*R11</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="T11" s="86">
-        <v>0.2</v>
-      </c>
-      <c r="U11" s="106">
-        <f t="shared" ref="U11:U16" si="10">I11*T11</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="V11" s="86">
-        <v>0.2</v>
-      </c>
-      <c r="W11" s="106">
-        <f t="shared" ref="W11:W16" si="11">K11*V11</f>
-        <v>0.24000000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="30">
-        <v>44186</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="35">
-        <v>3</v>
-      </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="27">
-        <v>0.7</v>
-      </c>
-      <c r="K12" s="39">
-        <f>G12*J12</f>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="L12" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="26">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="74">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="P12" s="78">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="73">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="R12" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="107">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
-      </c>
-      <c r="T12" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="U12" s="107">
-        <f t="shared" si="10"/>
+      <c r="T16" s="103">
         <v>0</v>
       </c>
-      <c r="V12" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="W12" s="107">
-        <f t="shared" si="11"/>
-        <v>1.0499999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="30">
-        <v>44186</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="34">
-        <v>3</v>
-      </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="38">
-        <f t="shared" ref="K13:K15" si="12">G13*J13</f>
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="M13" s="46">
-        <f t="shared" si="8"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="N13" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="O13" s="26">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="P13" s="69">
-        <v>0.4</v>
-      </c>
-      <c r="Q13" s="73">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="R13" s="88">
-        <v>0.4</v>
-      </c>
-      <c r="S13" s="71">
-        <f t="shared" si="9"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="T13" s="88">
-        <v>0.4</v>
-      </c>
-      <c r="U13" s="71">
-        <f t="shared" si="10"/>
+      <c r="U16" s="106">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="88">
-        <v>0.4</v>
-      </c>
-      <c r="W13" s="71">
-        <f t="shared" si="11"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>12</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="54">
-        <v>44186</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="55">
-        <v>4</v>
-      </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="K14" s="57">
-        <f t="shared" si="12"/>
-        <v>3.2</v>
-      </c>
-      <c r="L14" s="58">
-        <v>0.3</v>
-      </c>
-      <c r="M14" s="59">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="N14" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="O14" s="76">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="P14" s="83">
-        <v>0.1</v>
-      </c>
-      <c r="Q14" s="75">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="R14" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="S14" s="104">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="T14" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="U14" s="104">
-        <f t="shared" si="10"/>
+      <c r="V16" s="103">
         <v>0</v>
       </c>
-      <c r="V14" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="W14" s="104">
-        <f t="shared" si="11"/>
-        <v>0.32000000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119">
-        <v>13</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="121">
-        <v>44200</v>
-      </c>
-      <c r="F15" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="122">
-        <v>5</v>
-      </c>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125">
-        <v>0.6</v>
-      </c>
-      <c r="K15" s="126">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="L15" s="127">
-        <v>0.7</v>
-      </c>
-      <c r="M15" s="128">
-        <f t="shared" si="8"/>
-        <v>3.5</v>
-      </c>
-      <c r="N15" s="129">
-        <v>0.1</v>
-      </c>
-      <c r="O15" s="130">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="P15" s="131">
-        <v>0.1</v>
-      </c>
-      <c r="Q15" s="132">
-        <f>G15*P15</f>
-        <v>0.5</v>
-      </c>
-      <c r="R15" s="133">
-        <v>0.1</v>
-      </c>
-      <c r="S15" s="134">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="T15" s="133">
-        <v>0.1</v>
-      </c>
-      <c r="U15" s="134">
-        <f t="shared" si="10"/>
+      <c r="W16" s="106">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V15" s="133">
-        <v>0.1</v>
-      </c>
-      <c r="W15" s="134">
-        <f t="shared" si="11"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
-        <v>14</v>
-      </c>
-      <c r="B16" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111">
-        <v>44285</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="112">
-        <v>5</v>
-      </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="118">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="117"/>
-      <c r="U16" s="118">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="117"/>
-      <c r="W16" s="118">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="108"/>
+      <c r="Y16" s="72"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
